--- a/Motor Selection.xlsx
+++ b/Motor Selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRAGADEESH\OneDrive\Desktop\Internship\ACT-SYS-DELTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1EDF1D4-FDD1-405C-B120-228C3DF81764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8094B98F-8699-44FC-8A90-67762EA5249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="744" yWindow="1596" windowWidth="17280" windowHeight="8964" xr2:uid="{234FF6F4-F6EE-40FD-83A0-688D77A7F04B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{234FF6F4-F6EE-40FD-83A0-688D77A7F04B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,6 +68,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -84,15 +90,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +418,7 @@
   <dimension ref="B2:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,9 +433,9 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C3">
@@ -456,19 +464,19 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5">
@@ -489,11 +497,11 @@
       <c r="H5">
         <v>45</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="5">
         <f>(H5+160)*9.81*0.25*I3/3</f>
         <v>335.17500000000001</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4">
         <f>(H5+160)*9.81*0.25*J3/3</f>
         <v>418.96875</v>
       </c>
@@ -521,11 +529,11 @@
       <c r="H6">
         <v>60</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="5">
         <f>(H6+160)*9.81*0.25*I3/3</f>
         <v>359.70000000000005</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <f>(H6+160)*9.81*0.25*J3/3</f>
         <v>449.62500000000006</v>
       </c>
@@ -546,18 +554,18 @@
         <f>B7/D3</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <f>B7/E3</f>
         <v>0.625</v>
       </c>
       <c r="H7">
         <v>75</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="5">
         <f>(H7+160)*9.81*0.25*I3/3</f>
         <v>384.22499999999997</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <f>(H7+160)*9.81*0.25*J3/3</f>
         <v>480.28125</v>
       </c>
@@ -570,11 +578,11 @@
       <c r="H8">
         <v>90</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="5">
         <f>(H8+160)*9.81*0.25*I3/3</f>
         <v>408.75</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="5">
         <f>(H8+160)*9.81*0.25*J3/3</f>
         <v>510.9375</v>
       </c>
